--- a/REGULAR/OJT/ALCANTARA, RIZALINA.xlsx
+++ b/REGULAR/OJT/ALCANTARA, RIZALINA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1C8F7E-B248-4199-B317-8E89F7D3EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="435">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1328,12 +1327,24 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/26-29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1564,7 +1575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1756,6 +1767,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2205,7 +2219,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2262,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2326,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2386,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2452,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,7 +2515,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2613,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,7 +2672,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,7 +2737,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2780,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2855,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,7 +3041,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3093,7 +3107,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,7 +3165,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3217,7 +3231,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3273,7 +3287,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3348,7 +3362,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,7 +3405,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3457,7 +3471,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3513,7 +3527,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3611,7 +3625,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3674,7 +3688,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3723,7 +3737,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3740,26 +3754,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K580" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K580" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K591" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K591"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3771,13 +3785,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3786,14 +3800,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4097,7 +4111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4107,7 +4121,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4115,34 +4129,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K580"/>
+  <dimension ref="A2:K591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A492" activePane="bottomLeft"/>
-      <selection activeCell="K79" sqref="K79"/>
-      <selection pane="bottomLeft" activeCell="N494" sqref="N494"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A565" activePane="bottomLeft"/>
+      <selection activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="K587" sqref="K587"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="33.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4163,7 +4177,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4181,7 +4195,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4199,7 +4213,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4207,7 +4221,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4220,7 +4234,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -4237,7 +4251,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4272,7 +4286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4281,7 +4295,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.6149999999998386</v>
+        <v>8.8649999999998386</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4291,12 +4305,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>38.625</v>
+        <v>44.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -4318,7 +4332,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>44</v>
       </c>
@@ -4338,7 +4352,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>46</v>
       </c>
@@ -4358,7 +4372,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>48</v>
       </c>
@@ -4384,7 +4398,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34274</v>
       </c>
@@ -4410,7 +4424,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34304</v>
       </c>
@@ -4436,7 +4450,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>49</v>
       </c>
@@ -4460,7 +4474,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>34335</v>
       </c>
@@ -4486,7 +4500,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>34366</v>
       </c>
@@ -4512,7 +4526,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>34394</v>
       </c>
@@ -4538,7 +4552,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>34425</v>
       </c>
@@ -4564,7 +4578,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>34455</v>
       </c>
@@ -4590,7 +4604,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>34486</v>
       </c>
@@ -4616,7 +4630,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>34516</v>
       </c>
@@ -4642,7 +4656,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>34547</v>
       </c>
@@ -4668,7 +4682,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>34578</v>
       </c>
@@ -4700,7 +4714,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>34608</v>
       </c>
@@ -4732,7 +4746,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>34639</v>
       </c>
@@ -4760,7 +4774,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>34669</v>
       </c>
@@ -4792,7 +4806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>55</v>
       </c>
@@ -4816,7 +4830,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>34700</v>
       </c>
@@ -4848,7 +4862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>34731</v>
       </c>
@@ -4874,7 +4888,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>34759</v>
       </c>
@@ -4906,7 +4920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>34790</v>
       </c>
@@ -4934,7 +4948,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>34820</v>
       </c>
@@ -4960,7 +4974,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>34851</v>
       </c>
@@ -4986,7 +5000,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>34881</v>
       </c>
@@ -5012,7 +5026,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>34912</v>
       </c>
@@ -5038,7 +5052,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>34943</v>
       </c>
@@ -5064,7 +5078,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>34973</v>
       </c>
@@ -5090,7 +5104,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35004</v>
       </c>
@@ -5116,7 +5130,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>35034</v>
       </c>
@@ -5148,7 +5162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>62</v>
       </c>
@@ -5172,7 +5186,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>35065</v>
       </c>
@@ -5198,7 +5212,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>35096</v>
       </c>
@@ -5224,7 +5238,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>35125</v>
       </c>
@@ -5250,7 +5264,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>35156</v>
       </c>
@@ -5276,7 +5290,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>35186</v>
       </c>
@@ -5306,7 +5320,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>35217</v>
       </c>
@@ -5332,7 +5346,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>35247</v>
       </c>
@@ -5358,7 +5372,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35278</v>
       </c>
@@ -5384,7 +5398,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>35309</v>
       </c>
@@ -5410,7 +5424,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>35339</v>
       </c>
@@ -5436,7 +5450,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>35370</v>
       </c>
@@ -5462,7 +5476,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35400</v>
       </c>
@@ -5494,7 +5508,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
         <v>83</v>
       </c>
@@ -5518,7 +5532,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>35431</v>
       </c>
@@ -5544,7 +5558,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>35462</v>
       </c>
@@ -5570,7 +5584,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>35490</v>
       </c>
@@ -5602,7 +5616,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>35521</v>
       </c>
@@ -5628,7 +5642,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>35551</v>
       </c>
@@ -5654,7 +5668,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>35582</v>
       </c>
@@ -5680,7 +5694,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>35612</v>
       </c>
@@ -5706,7 +5720,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>35643</v>
       </c>
@@ -5732,7 +5746,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>35674</v>
       </c>
@@ -5758,7 +5772,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>35704</v>
       </c>
@@ -5784,7 +5798,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>35735</v>
       </c>
@@ -5810,7 +5824,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>35765</v>
       </c>
@@ -5840,7 +5854,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>93</v>
@@ -5866,7 +5880,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
         <v>84</v>
       </c>
@@ -5890,7 +5904,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>35796</v>
       </c>
@@ -5916,7 +5930,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>35827</v>
       </c>
@@ -5942,7 +5956,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>35855</v>
       </c>
@@ -5968,7 +5982,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>35886</v>
       </c>
@@ -5994,7 +6008,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>35916</v>
       </c>
@@ -6020,7 +6034,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>35947</v>
       </c>
@@ -6046,7 +6060,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>35977</v>
       </c>
@@ -6072,7 +6086,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>36008</v>
       </c>
@@ -6098,7 +6112,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>36039</v>
       </c>
@@ -6130,7 +6144,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>96</v>
@@ -6156,7 +6170,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36069</v>
       </c>
@@ -6188,7 +6202,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>36100</v>
       </c>
@@ -6220,7 +6234,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>100</v>
@@ -6246,7 +6260,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>36130</v>
       </c>
@@ -6278,7 +6292,7 @@
         <v>36140</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>102</v>
@@ -6306,7 +6320,7 @@
         <v>36157</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>103</v>
@@ -6332,7 +6346,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="52"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="47" t="s">
         <v>85</v>
       </c>
@@ -6356,7 +6370,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>36161</v>
       </c>
@@ -6388,7 +6402,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>106</v>
@@ -6414,7 +6428,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>36192</v>
       </c>
@@ -6440,7 +6454,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>36220</v>
       </c>
@@ -6466,7 +6480,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>36251</v>
       </c>
@@ -6492,7 +6506,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>36281</v>
       </c>
@@ -6522,7 +6536,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>116</v>
@@ -6548,7 +6562,7 @@
         <v>36307</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36312</v>
       </c>
@@ -6578,7 +6592,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>36342</v>
       </c>
@@ -6604,7 +6618,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>36373</v>
       </c>
@@ -6636,7 +6650,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>36404</v>
       </c>
@@ -6666,7 +6680,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>36434</v>
       </c>
@@ -6698,7 +6712,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>60</v>
@@ -6726,7 +6740,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>36465</v>
       </c>
@@ -6756,7 +6770,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>36495</v>
       </c>
@@ -6786,7 +6800,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>112</v>
@@ -6812,7 +6826,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
         <v>86</v>
       </c>
@@ -6836,7 +6850,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36526</v>
       </c>
@@ -6866,7 +6880,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>118</v>
@@ -6894,7 +6908,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36557</v>
       </c>
@@ -6924,7 +6938,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36586</v>
       </c>
@@ -6954,7 +6968,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>36617</v>
       </c>
@@ -6984,7 +6998,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>36647</v>
       </c>
@@ -7014,7 +7028,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>36678</v>
       </c>
@@ -7044,7 +7058,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>36708</v>
       </c>
@@ -7074,7 +7088,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>36739</v>
       </c>
@@ -7106,7 +7120,7 @@
         <v>36752</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>127</v>
@@ -7132,7 +7146,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>36770</v>
       </c>
@@ -7162,7 +7176,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>36800</v>
       </c>
@@ -7192,7 +7206,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>36831</v>
       </c>
@@ -7224,7 +7238,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>130</v>
@@ -7250,7 +7264,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>36861</v>
       </c>
@@ -7280,7 +7294,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
         <v>82</v>
       </c>
@@ -7304,7 +7318,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>36892</v>
       </c>
@@ -7334,7 +7348,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>36923</v>
       </c>
@@ -7364,7 +7378,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>133</v>
@@ -7390,7 +7404,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>36951</v>
       </c>
@@ -7420,7 +7434,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>36982</v>
       </c>
@@ -7450,7 +7464,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37012</v>
       </c>
@@ -7480,7 +7494,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>37043</v>
       </c>
@@ -7510,7 +7524,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37073</v>
       </c>
@@ -7542,7 +7556,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>140</v>
@@ -7568,7 +7582,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37104</v>
       </c>
@@ -7596,7 +7610,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>37135</v>
       </c>
@@ -7624,7 +7638,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>37165</v>
       </c>
@@ -7652,7 +7666,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>37196</v>
       </c>
@@ -7680,7 +7694,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>144</v>
@@ -7706,7 +7720,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>37226</v>
       </c>
@@ -7736,7 +7750,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="47" t="s">
         <v>81</v>
       </c>
@@ -7760,7 +7774,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>37257</v>
       </c>
@@ -7790,7 +7804,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>37288</v>
       </c>
@@ -7820,7 +7834,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>37316</v>
       </c>
@@ -7850,7 +7864,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>37347</v>
       </c>
@@ -7880,7 +7894,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>37377</v>
       </c>
@@ -7906,7 +7920,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>37408</v>
       </c>
@@ -7932,7 +7946,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>37438</v>
       </c>
@@ -7964,7 +7978,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>50</v>
@@ -7989,7 +8003,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>37469</v>
       </c>
@@ -8015,7 +8029,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37500</v>
       </c>
@@ -8041,7 +8055,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>37530</v>
       </c>
@@ -8073,7 +8087,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>153</v>
@@ -8101,7 +8115,7 @@
         <v>37596</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>37561</v>
       </c>
@@ -8127,7 +8141,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>37591</v>
       </c>
@@ -8153,7 +8167,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="47" t="s">
         <v>80</v>
       </c>
@@ -8177,7 +8191,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>37622</v>
       </c>
@@ -8203,7 +8217,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>37653</v>
       </c>
@@ -8229,7 +8243,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>37681</v>
       </c>
@@ -8255,7 +8269,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>37712</v>
       </c>
@@ -8281,7 +8295,7 @@
       <c r="J154" s="12"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>37742</v>
       </c>
@@ -8307,7 +8321,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>37773</v>
       </c>
@@ -8333,7 +8347,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>37803</v>
       </c>
@@ -8359,7 +8373,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37834</v>
       </c>
@@ -8385,7 +8399,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>37865</v>
       </c>
@@ -8415,7 +8429,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>37895</v>
       </c>
@@ -8445,7 +8459,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>37926</v>
       </c>
@@ -8475,7 +8489,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>157</v>
@@ -8501,7 +8515,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>37956</v>
       </c>
@@ -8527,7 +8541,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="47" t="s">
         <v>79</v>
       </c>
@@ -8551,7 +8565,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>37987</v>
       </c>
@@ -8577,7 +8591,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38018</v>
       </c>
@@ -8603,7 +8617,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>38047</v>
       </c>
@@ -8629,7 +8643,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38078</v>
       </c>
@@ -8655,7 +8669,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>38108</v>
       </c>
@@ -8681,7 +8695,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>38139</v>
       </c>
@@ -8711,7 +8725,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38169</v>
       </c>
@@ -8741,7 +8755,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>38200</v>
       </c>
@@ -8771,7 +8785,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38231</v>
       </c>
@@ -8801,7 +8815,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>38261</v>
       </c>
@@ -8831,7 +8845,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>38292</v>
       </c>
@@ -8863,7 +8877,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>163</v>
@@ -8886,7 +8900,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38322</v>
       </c>
@@ -8916,7 +8930,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="47" t="s">
         <v>78</v>
       </c>
@@ -8940,7 +8954,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>38353</v>
       </c>
@@ -8970,7 +8984,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>38384</v>
       </c>
@@ -9002,7 +9016,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>166</v>
@@ -9030,7 +9044,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>170</v>
@@ -9056,7 +9070,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>38412</v>
       </c>
@@ -9086,7 +9100,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>38443</v>
       </c>
@@ -9118,7 +9132,7 @@
         <v>38447</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>50</v>
@@ -9146,7 +9160,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>87</v>
@@ -9174,7 +9188,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>172</v>
@@ -9200,7 +9214,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>38473</v>
       </c>
@@ -9230,7 +9244,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>38504</v>
       </c>
@@ -9262,7 +9276,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>102</v>
@@ -9287,7 +9301,7 @@
         <v>38525</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>50</v>
@@ -9312,7 +9326,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>38534</v>
       </c>
@@ -9344,7 +9358,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>178</v>
@@ -9369,7 +9383,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>60</v>
@@ -9394,7 +9408,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38565</v>
       </c>
@@ -9426,7 +9440,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>179</v>
@@ -9454,7 +9468,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>38596</v>
       </c>
@@ -9486,7 +9500,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>38626</v>
       </c>
@@ -9518,7 +9532,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>187</v>
@@ -9544,7 +9558,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>38657</v>
       </c>
@@ -9576,7 +9590,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>38687</v>
       </c>
@@ -9606,7 +9620,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>77</v>
       </c>
@@ -9630,7 +9644,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>38718</v>
       </c>
@@ -9656,7 +9670,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>38749</v>
       </c>
@@ -9682,7 +9696,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>38777</v>
       </c>
@@ -9708,7 +9722,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>38808</v>
       </c>
@@ -9738,7 +9752,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38838</v>
       </c>
@@ -9764,7 +9778,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>38869</v>
       </c>
@@ -9794,7 +9808,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>38899</v>
       </c>
@@ -9820,7 +9834,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>38930</v>
       </c>
@@ -9846,7 +9860,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38961</v>
       </c>
@@ -9876,7 +9890,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>38991</v>
       </c>
@@ -9906,7 +9920,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>39022</v>
       </c>
@@ -9932,7 +9946,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>39052</v>
       </c>
@@ -9958,7 +9972,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="47" t="s">
         <v>76</v>
       </c>
@@ -9982,7 +9996,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40" t="s">
         <v>196</v>
       </c>
@@ -10010,7 +10024,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>39173</v>
       </c>
@@ -10042,7 +10056,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>50</v>
@@ -10067,7 +10081,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>102</v>
@@ -10092,7 +10106,7 @@
         <v>39223</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>102</v>
@@ -10117,7 +10131,7 @@
         <v>39227</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>60</v>
@@ -10142,7 +10156,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>198</v>
@@ -10165,7 +10179,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>39203</v>
       </c>
@@ -10195,7 +10209,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39234</v>
       </c>
@@ -10227,7 +10241,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>200</v>
@@ -10250,7 +10264,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39264</v>
       </c>
@@ -10282,7 +10296,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>102</v>
@@ -10307,7 +10321,7 @@
         <v>39283</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>99</v>
@@ -10332,7 +10346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>201</v>
@@ -10355,7 +10369,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>39295</v>
       </c>
@@ -10385,7 +10399,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>202</v>
@@ -10410,7 +10424,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>203</v>
@@ -10433,7 +10447,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>39326</v>
       </c>
@@ -10465,7 +10479,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>60</v>
@@ -10490,7 +10504,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>102</v>
@@ -10515,7 +10529,7 @@
         <v>39345</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>102</v>
@@ -10540,7 +10554,7 @@
         <v>39350</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>112</v>
@@ -10565,7 +10579,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>213</v>
@@ -10588,7 +10602,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>39356</v>
       </c>
@@ -10620,7 +10634,7 @@
         <v>39381</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>214</v>
@@ -10646,7 +10660,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>39387</v>
       </c>
@@ -10678,7 +10692,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>50</v>
@@ -10706,7 +10720,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>215</v>
@@ -10732,7 +10746,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39417</v>
       </c>
@@ -10762,7 +10776,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="47" t="s">
         <v>75</v>
       </c>
@@ -10786,7 +10800,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>39448</v>
       </c>
@@ -10818,7 +10832,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>50</v>
@@ -10846,7 +10860,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -10874,7 +10888,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>217</v>
@@ -10900,7 +10914,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>39479</v>
       </c>
@@ -10932,7 +10946,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>102</v>
@@ -10957,7 +10971,7 @@
         <v>39496</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>218</v>
@@ -10980,7 +10994,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39508</v>
       </c>
@@ -11012,7 +11026,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>223</v>
@@ -11035,7 +11049,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>39539</v>
       </c>
@@ -11065,7 +11079,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>118</v>
@@ -11088,7 +11102,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>39569</v>
       </c>
@@ -11118,7 +11132,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>224</v>
@@ -11144,7 +11158,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>39600</v>
       </c>
@@ -11176,7 +11190,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>102</v>
@@ -11204,7 +11218,7 @@
         <v>39641</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>225</v>
@@ -11230,7 +11244,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>39630</v>
       </c>
@@ -11262,7 +11276,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>226</v>
@@ -11288,7 +11302,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39661</v>
       </c>
@@ -11320,7 +11334,7 @@
         <v>39661</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>102</v>
@@ -11348,7 +11362,7 @@
         <v>39681</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>102</v>
@@ -11376,7 +11390,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>227</v>
@@ -11402,7 +11416,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>39692</v>
       </c>
@@ -11434,7 +11448,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>50</v>
@@ -11462,7 +11476,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>228</v>
@@ -11488,7 +11502,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>39722</v>
       </c>
@@ -11520,7 +11534,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>229</v>
@@ -11546,7 +11560,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>102</v>
@@ -11574,7 +11588,7 @@
         <v>39749</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>243</v>
@@ -11600,7 +11614,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>39753</v>
       </c>
@@ -11630,7 +11644,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>39783</v>
       </c>
@@ -11662,7 +11676,7 @@
         <v>39785</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>87</v>
@@ -11687,7 +11701,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -11709,7 +11723,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="47" t="s">
         <v>74</v>
       </c>
@@ -11733,7 +11747,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>39814</v>
       </c>
@@ -11763,7 +11777,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>102</v>
@@ -11791,7 +11805,7 @@
         <v>39840</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>104</v>
@@ -11819,7 +11833,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>246</v>
@@ -11845,7 +11859,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>39845</v>
       </c>
@@ -11877,7 +11891,7 @@
         <v>39874</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>247</v>
@@ -11903,7 +11917,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>39873</v>
       </c>
@@ -11935,7 +11949,7 @@
         <v>39892</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>116</v>
@@ -11961,7 +11975,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>248</v>
@@ -11987,7 +12001,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>102</v>
@@ -12015,7 +12029,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>39904</v>
       </c>
@@ -12045,7 +12059,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>102</v>
@@ -12070,7 +12084,7 @@
         <v>39952</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39934</v>
       </c>
@@ -12102,7 +12116,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>102</v>
@@ -12130,7 +12144,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>250</v>
@@ -12156,7 +12170,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>39965</v>
       </c>
@@ -12188,7 +12202,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>50</v>
@@ -12216,7 +12230,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>251</v>
@@ -12242,7 +12256,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>39995</v>
       </c>
@@ -12274,7 +12288,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>187</v>
@@ -12300,7 +12314,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>102</v>
@@ -12328,7 +12342,7 @@
         <v>39996</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>252</v>
@@ -12354,7 +12368,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>40026</v>
       </c>
@@ -12380,7 +12394,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>40057</v>
       </c>
@@ -12410,7 +12424,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>40087</v>
       </c>
@@ -12442,7 +12456,7 @@
         <v>40091</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>102</v>
@@ -12470,7 +12484,7 @@
         <v>40102</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>50</v>
@@ -12498,7 +12512,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>102</v>
@@ -12526,7 +12540,7 @@
         <v>40113</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>262</v>
@@ -12552,7 +12566,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="52"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>40118</v>
       </c>
@@ -12584,7 +12598,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>102</v>
@@ -12612,7 +12626,7 @@
         <v>40140</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>264</v>
@@ -12638,7 +12652,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>40148</v>
       </c>
@@ -12670,7 +12684,7 @@
         <v>40149</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>50</v>
@@ -12698,7 +12712,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>265</v>
@@ -12724,7 +12738,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="47" t="s">
         <v>73</v>
       </c>
@@ -12748,7 +12762,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>40179</v>
       </c>
@@ -12782,7 +12796,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>267</v>
@@ -12808,7 +12822,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40210</v>
       </c>
@@ -12840,7 +12854,7 @@
         <v>40214</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>60</v>
@@ -12868,7 +12882,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>268</v>
@@ -12894,7 +12908,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>40238</v>
       </c>
@@ -12924,7 +12938,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>40269</v>
       </c>
@@ -12956,7 +12970,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>53</v>
@@ -12981,7 +12995,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>273</v>
@@ -13004,7 +13018,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>40299</v>
       </c>
@@ -13034,7 +13048,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>274</v>
@@ -13060,7 +13074,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>40330</v>
       </c>
@@ -13092,7 +13106,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>275</v>
@@ -13118,7 +13132,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>40360</v>
       </c>
@@ -13148,7 +13162,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>40391</v>
       </c>
@@ -13180,7 +13194,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>53</v>
@@ -13208,7 +13222,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>60</v>
@@ -13236,7 +13250,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>276</v>
@@ -13262,7 +13276,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>40422</v>
       </c>
@@ -13292,7 +13306,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>40452</v>
       </c>
@@ -13324,7 +13338,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>278</v>
@@ -13350,7 +13364,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>40483</v>
       </c>
@@ -13380,7 +13394,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>40513</v>
       </c>
@@ -13412,7 +13426,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>50</v>
@@ -13440,7 +13454,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>280</v>
@@ -13466,7 +13480,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="47" t="s">
         <v>72</v>
       </c>
@@ -13490,7 +13504,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>40544</v>
       </c>
@@ -13522,7 +13536,7 @@
         <v>40548</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>290</v>
@@ -13548,7 +13562,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="52"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>40575</v>
       </c>
@@ -13580,7 +13594,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>291</v>
@@ -13606,7 +13620,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>40603</v>
       </c>
@@ -13636,7 +13650,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>292</v>
@@ -13662,7 +13676,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>40634</v>
       </c>
@@ -13694,7 +13708,7 @@
         <v>40646</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>293</v>
@@ -13720,7 +13734,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>40664</v>
       </c>
@@ -13750,7 +13764,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>102</v>
@@ -13778,7 +13792,7 @@
         <v>40688</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>102</v>
@@ -13806,7 +13820,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>294</v>
@@ -13832,7 +13846,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>40695</v>
       </c>
@@ -13864,7 +13878,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>295</v>
@@ -13890,7 +13904,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>40725</v>
       </c>
@@ -13922,7 +13936,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>301</v>
@@ -13948,7 +13962,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>40756</v>
       </c>
@@ -13980,7 +13994,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>102</v>
@@ -14008,7 +14022,7 @@
         <v>40758</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>102</v>
@@ -14036,7 +14050,7 @@
         <v>40773</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>296</v>
@@ -14062,7 +14076,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>40787</v>
       </c>
@@ -14094,7 +14108,7 @@
         <v>40814</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>102</v>
@@ -14122,7 +14136,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>303</v>
@@ -14148,7 +14162,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="53"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>40817</v>
       </c>
@@ -14180,7 +14194,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>304</v>
@@ -14208,7 +14222,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>305</v>
@@ -14234,7 +14248,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40848</v>
       </c>
@@ -14266,7 +14280,7 @@
         <v>40849</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>304</v>
@@ -14296,7 +14310,7 @@
         <v>40843</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>306</v>
@@ -14322,7 +14336,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>40878</v>
       </c>
@@ -14354,7 +14368,7 @@
         <v>40889</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>102</v>
@@ -14382,7 +14396,7 @@
         <v>40892</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>50</v>
@@ -14410,7 +14424,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>307</v>
@@ -14436,7 +14450,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="47" t="s">
         <v>71</v>
       </c>
@@ -14460,7 +14474,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>40909</v>
       </c>
@@ -14492,7 +14506,7 @@
         <v>40938</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>309</v>
@@ -14518,7 +14532,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>40940</v>
       </c>
@@ -14550,7 +14564,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>311</v>
@@ -14576,7 +14590,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>40969</v>
       </c>
@@ -14610,7 +14624,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>313</v>
@@ -14636,7 +14650,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>41000</v>
       </c>
@@ -14668,7 +14682,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>314</v>
@@ -14694,7 +14708,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>41030</v>
       </c>
@@ -14726,7 +14740,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>50</v>
@@ -14754,7 +14768,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>116</v>
@@ -14780,7 +14794,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>102</v>
@@ -14808,7 +14822,7 @@
         <v>41054</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>315</v>
@@ -14834,7 +14848,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>41061</v>
       </c>
@@ -14864,7 +14878,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>41091</v>
       </c>
@@ -14896,7 +14910,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>317</v>
@@ -14922,7 +14936,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>41122</v>
       </c>
@@ -14954,7 +14968,7 @@
         <v>41149</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>318</v>
@@ -14980,7 +14994,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>41153</v>
       </c>
@@ -15012,7 +15026,7 @@
         <v>41177</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>319</v>
@@ -15038,7 +15052,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>41183</v>
       </c>
@@ -15068,7 +15082,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>41214</v>
       </c>
@@ -15100,7 +15114,7 @@
         <v>41226</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>50</v>
@@ -15128,7 +15142,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>321</v>
@@ -15154,7 +15168,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>41244</v>
       </c>
@@ -15186,7 +15200,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>266</v>
@@ -15216,7 +15230,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="47" t="s">
         <v>70</v>
       </c>
@@ -15240,7 +15254,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>41275</v>
       </c>
@@ -15272,7 +15286,7 @@
         <v>41297</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>330</v>
@@ -15298,7 +15312,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="52"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>41306</v>
       </c>
@@ -15332,7 +15346,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>304</v>
@@ -15360,7 +15374,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>331</v>
@@ -15386,7 +15400,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>102</v>
@@ -15414,7 +15428,7 @@
         <v>41333</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>41334</v>
       </c>
@@ -15444,7 +15458,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>41365</v>
       </c>
@@ -15474,7 +15488,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>41395</v>
       </c>
@@ -15504,7 +15518,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>333</v>
@@ -15530,7 +15544,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>41426</v>
       </c>
@@ -15560,7 +15574,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>41456</v>
       </c>
@@ -15590,7 +15604,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>41487</v>
       </c>
@@ -15622,7 +15636,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>336</v>
@@ -15648,7 +15662,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>41518</v>
       </c>
@@ -15680,7 +15694,7 @@
         <v>41540</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>337</v>
@@ -15706,7 +15720,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>41548</v>
       </c>
@@ -15736,7 +15750,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>41579</v>
       </c>
@@ -15766,7 +15780,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>41609</v>
       </c>
@@ -15800,7 +15814,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>343</v>
@@ -15826,7 +15840,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="47" t="s">
         <v>69</v>
       </c>
@@ -15850,7 +15864,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>41640</v>
       </c>
@@ -15884,7 +15898,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>344</v>
@@ -15910,7 +15924,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>41671</v>
       </c>
@@ -15940,7 +15954,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>41699</v>
       </c>
@@ -15972,7 +15986,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>346</v>
@@ -15998,7 +16012,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>41730</v>
       </c>
@@ -16028,7 +16042,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>41760</v>
       </c>
@@ -16062,7 +16076,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>312</v>
@@ -16092,7 +16106,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>349</v>
@@ -16118,7 +16132,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>41791</v>
       </c>
@@ -16148,7 +16162,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41821</v>
       </c>
@@ -16178,7 +16192,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>41852</v>
       </c>
@@ -16210,7 +16224,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>358</v>
@@ -16240,7 +16254,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>350</v>
@@ -16266,7 +16280,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>41883</v>
       </c>
@@ -16300,7 +16314,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>160</v>
@@ -16326,7 +16340,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>41913</v>
       </c>
@@ -16356,7 +16370,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>41944</v>
       </c>
@@ -16386,7 +16400,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>41974</v>
       </c>
@@ -16416,7 +16430,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="47" t="s">
         <v>68</v>
       </c>
@@ -16440,7 +16454,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>42005</v>
       </c>
@@ -16470,7 +16484,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>42036</v>
       </c>
@@ -16500,7 +16514,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>42064</v>
       </c>
@@ -16530,7 +16544,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>364</v>
@@ -16556,7 +16570,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>42095</v>
       </c>
@@ -16586,7 +16600,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>42125</v>
       </c>
@@ -16618,7 +16632,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>366</v>
@@ -16646,7 +16660,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>42156</v>
       </c>
@@ -16676,7 +16690,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>229</v>
@@ -16702,7 +16716,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>367</v>
@@ -16728,7 +16742,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>42186</v>
       </c>
@@ -16758,7 +16772,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42217</v>
       </c>
@@ -16790,7 +16804,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>369</v>
@@ -16816,7 +16830,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>42248</v>
       </c>
@@ -16846,7 +16860,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>42278</v>
       </c>
@@ -16876,7 +16890,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>42309</v>
       </c>
@@ -16906,7 +16920,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>42339</v>
       </c>
@@ -16936,7 +16950,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="47" t="s">
         <v>67</v>
       </c>
@@ -16960,7 +16974,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>42370</v>
       </c>
@@ -16990,7 +17004,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>42401</v>
       </c>
@@ -17020,7 +17034,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>42430</v>
       </c>
@@ -17050,7 +17064,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>42461</v>
       </c>
@@ -17080,7 +17094,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>42491</v>
       </c>
@@ -17110,7 +17124,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>366</v>
@@ -17136,7 +17150,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>42522</v>
       </c>
@@ -17166,7 +17180,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>42552</v>
       </c>
@@ -17196,7 +17210,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>42583</v>
       </c>
@@ -17226,7 +17240,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>42614</v>
       </c>
@@ -17258,7 +17272,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>102</v>
@@ -17286,7 +17300,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>385</v>
@@ -17314,7 +17328,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>386</v>
@@ -17340,7 +17354,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>42644</v>
       </c>
@@ -17370,7 +17384,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>42675</v>
       </c>
@@ -17402,7 +17416,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>50</v>
@@ -17427,7 +17441,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>388</v>
@@ -17450,7 +17464,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>42705</v>
       </c>
@@ -17480,7 +17494,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="47" t="s">
         <v>66</v>
       </c>
@@ -17504,7 +17518,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>42736</v>
       </c>
@@ -17536,7 +17550,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>229</v>
@@ -17562,7 +17576,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>42767</v>
       </c>
@@ -17592,7 +17606,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>42795</v>
       </c>
@@ -17622,7 +17636,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>42826</v>
       </c>
@@ -17654,7 +17668,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>100</v>
@@ -17680,7 +17694,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>42856</v>
       </c>
@@ -17710,7 +17724,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>102</v>
@@ -17738,7 +17752,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>398</v>
@@ -17764,7 +17778,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>42887</v>
       </c>
@@ -17794,7 +17808,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>42917</v>
       </c>
@@ -17820,7 +17834,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>42948</v>
       </c>
@@ -17850,7 +17864,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>42979</v>
       </c>
@@ -17882,7 +17896,7 @@
         <v>42985</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>401</v>
@@ -17908,7 +17922,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43009</v>
       </c>
@@ -17940,7 +17954,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>110</v>
@@ -17968,7 +17982,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>50</v>
@@ -17996,7 +18010,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>50</v>
@@ -18024,7 +18038,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>102</v>
@@ -18052,7 +18066,7 @@
         <v>43059</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>408</v>
@@ -18078,7 +18092,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="52"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43040</v>
       </c>
@@ -18104,7 +18118,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43070</v>
       </c>
@@ -18136,7 +18150,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>50</v>
@@ -18164,7 +18178,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -18186,7 +18200,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="47" t="s">
         <v>65</v>
       </c>
@@ -18210,7 +18224,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>43101</v>
       </c>
@@ -18242,7 +18256,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>90</v>
@@ -18268,7 +18282,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>43132</v>
       </c>
@@ -18294,7 +18308,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>43160</v>
       </c>
@@ -18326,7 +18340,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>43191</v>
       </c>
@@ -18352,7 +18366,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43221</v>
       </c>
@@ -18384,7 +18398,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>43252</v>
       </c>
@@ -18410,7 +18424,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43282</v>
       </c>
@@ -18436,7 +18450,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>43313</v>
       </c>
@@ -18462,7 +18476,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>43344</v>
       </c>
@@ -18488,7 +18502,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>43374</v>
       </c>
@@ -18520,7 +18534,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>310</v>
@@ -18545,7 +18559,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>43405</v>
       </c>
@@ -18571,7 +18585,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>43435</v>
       </c>
@@ -18603,7 +18617,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>92</v>
@@ -18626,7 +18640,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="47" t="s">
         <v>64</v>
       </c>
@@ -18650,7 +18664,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>43466</v>
       </c>
@@ -18676,7 +18690,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>43497</v>
       </c>
@@ -18708,7 +18722,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43525</v>
       </c>
@@ -18740,7 +18754,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43556</v>
       </c>
@@ -18766,7 +18780,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>43586</v>
       </c>
@@ -18796,7 +18810,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>60</v>
@@ -18821,7 +18835,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>43617</v>
       </c>
@@ -18847,7 +18861,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>43647</v>
       </c>
@@ -18873,7 +18887,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>43678</v>
       </c>
@@ -18905,7 +18919,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>43709</v>
       </c>
@@ -18931,7 +18945,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>43739</v>
       </c>
@@ -18963,7 +18977,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>50</v>
@@ -18988,7 +19002,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>43770</v>
       </c>
@@ -19020,7 +19034,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>43800</v>
       </c>
@@ -19046,7 +19060,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="47" t="s">
         <v>63</v>
       </c>
@@ -19070,7 +19084,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>43831</v>
       </c>
@@ -19100,7 +19114,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>43862</v>
       </c>
@@ -19126,7 +19140,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>43891</v>
       </c>
@@ -19152,7 +19166,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>43922</v>
       </c>
@@ -19178,7 +19192,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>43952</v>
       </c>
@@ -19204,7 +19218,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>43983</v>
       </c>
@@ -19230,7 +19244,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>44013</v>
       </c>
@@ -19262,7 +19276,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>44044</v>
       </c>
@@ -19288,7 +19302,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44075</v>
       </c>
@@ -19314,7 +19328,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44105</v>
       </c>
@@ -19340,7 +19354,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44136</v>
       </c>
@@ -19366,7 +19380,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>44166</v>
       </c>
@@ -19396,7 +19410,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="47" t="s">
         <v>426</v>
       </c>
@@ -19420,7 +19434,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44197</v>
       </c>
@@ -19446,7 +19460,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44228</v>
       </c>
@@ -19472,7 +19486,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>44256</v>
       </c>
@@ -19498,7 +19512,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>44287</v>
       </c>
@@ -19524,7 +19538,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>44317</v>
       </c>
@@ -19550,7 +19564,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>44348</v>
       </c>
@@ -19576,7 +19590,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>44378</v>
       </c>
@@ -19602,7 +19616,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>44409</v>
       </c>
@@ -19634,7 +19648,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>44440</v>
       </c>
@@ -19660,7 +19674,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>44470</v>
       </c>
@@ -19686,7 +19700,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44501</v>
       </c>
@@ -19712,7 +19726,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>44531</v>
       </c>
@@ -19742,7 +19756,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="47" t="s">
         <v>430</v>
       </c>
@@ -19766,7 +19780,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>44562</v>
       </c>
@@ -19792,7 +19806,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>44593</v>
       </c>
@@ -19818,7 +19832,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>44621</v>
       </c>
@@ -19844,7 +19858,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>44652</v>
       </c>
@@ -19870,7 +19884,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>44682</v>
       </c>
@@ -19896,7 +19910,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>44713</v>
       </c>
@@ -19922,7 +19936,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>44743</v>
       </c>
@@ -19948,7 +19962,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>44774</v>
       </c>
@@ -19974,7 +19988,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>44805</v>
       </c>
@@ -20000,7 +20014,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>44835</v>
       </c>
@@ -20026,7 +20040,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>44866</v>
       </c>
@@ -20052,7 +20066,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>44896</v>
       </c>
@@ -20082,7 +20096,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="47" t="s">
         <v>429</v>
       </c>
@@ -20106,7 +20120,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>44927</v>
       </c>
@@ -20132,7 +20146,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>44958</v>
       </c>
@@ -20158,7 +20172,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>44986</v>
       </c>
@@ -20184,7 +20198,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>45017</v>
       </c>
@@ -20210,7 +20224,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>45047</v>
       </c>
@@ -20235,6 +20249,222 @@
       </c>
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A581" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B581" s="20"/>
+      <c r="C581" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D581" s="39"/>
+      <c r="E581" s="9"/>
+      <c r="F581" s="20"/>
+      <c r="G581" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H581" s="39"/>
+      <c r="I581" s="9"/>
+      <c r="J581" s="11"/>
+      <c r="K581" s="20"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B582" s="20"/>
+      <c r="C582" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D582" s="39"/>
+      <c r="E582" s="9"/>
+      <c r="F582" s="20"/>
+      <c r="G582" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H582" s="39"/>
+      <c r="I582" s="9"/>
+      <c r="J582" s="11"/>
+      <c r="K582" s="20"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A583" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B583" s="20"/>
+      <c r="C583" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D583" s="39"/>
+      <c r="E583" s="9"/>
+      <c r="F583" s="20"/>
+      <c r="G583" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H583" s="39"/>
+      <c r="I583" s="9"/>
+      <c r="J583" s="11"/>
+      <c r="K583" s="20"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B584" s="20"/>
+      <c r="C584" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D584" s="39"/>
+      <c r="E584" s="9"/>
+      <c r="F584" s="20"/>
+      <c r="G584" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H584" s="39"/>
+      <c r="I584" s="9"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="20"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A585" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B585" s="20"/>
+      <c r="C585" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D585" s="39"/>
+      <c r="E585" s="9"/>
+      <c r="F585" s="20"/>
+      <c r="G585" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H585" s="39"/>
+      <c r="I585" s="9"/>
+      <c r="J585" s="11"/>
+      <c r="K585" s="20"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B586" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C586" s="13"/>
+      <c r="D586" s="39">
+        <v>1</v>
+      </c>
+      <c r="E586" s="9"/>
+      <c r="F586" s="20"/>
+      <c r="G586" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H586" s="39"/>
+      <c r="I586" s="9"/>
+      <c r="J586" s="11"/>
+      <c r="K586" s="52">
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A587" s="40"/>
+      <c r="B587" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C587" s="13"/>
+      <c r="D587" s="39">
+        <v>4</v>
+      </c>
+      <c r="E587" s="9"/>
+      <c r="F587" s="20"/>
+      <c r="G587" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H587" s="39"/>
+      <c r="I587" s="9"/>
+      <c r="J587" s="11"/>
+      <c r="K587" s="52" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B588" s="20"/>
+      <c r="C588" s="13"/>
+      <c r="D588" s="39"/>
+      <c r="E588" s="9"/>
+      <c r="F588" s="20"/>
+      <c r="G588" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H588" s="39"/>
+      <c r="I588" s="9"/>
+      <c r="J588" s="11"/>
+      <c r="K588" s="20"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="B589" s="20"/>
+      <c r="C589" s="13"/>
+      <c r="D589" s="39"/>
+      <c r="E589" s="9"/>
+      <c r="F589" s="20"/>
+      <c r="G589" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H589" s="39"/>
+      <c r="I589" s="9"/>
+      <c r="J589" s="11"/>
+      <c r="K589" s="20"/>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B590" s="20"/>
+      <c r="C590" s="13"/>
+      <c r="D590" s="39"/>
+      <c r="E590" s="9"/>
+      <c r="F590" s="20"/>
+      <c r="G590" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H590" s="39"/>
+      <c r="I590" s="9"/>
+      <c r="J590" s="11"/>
+      <c r="K590" s="20"/>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" s="66"/>
+      <c r="B591" s="15"/>
+      <c r="C591" s="41"/>
+      <c r="D591" s="42"/>
+      <c r="E591" s="9"/>
+      <c r="F591" s="15"/>
+      <c r="G591" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H591" s="42"/>
+      <c r="I591" s="9"/>
+      <c r="J591" s="12"/>
+      <c r="K591" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20251,10 +20481,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20277,7 +20507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20285,21 +20515,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -20312,7 +20542,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20341,7 +20571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -20367,17 +20597,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20398,7 +20628,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20425,7 +20655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20451,7 +20681,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20477,7 +20707,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20503,7 +20733,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20529,7 +20759,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20555,7 +20785,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20581,7 +20811,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20607,7 +20837,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20627,7 +20857,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20647,7 +20877,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20667,7 +20897,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20688,7 +20918,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20709,7 +20939,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20730,7 +20960,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20751,7 +20981,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20772,7 +21002,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20793,7 +21023,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20814,7 +21044,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20835,7 +21065,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -20856,7 +21086,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -20877,7 +21107,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -20898,7 +21128,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -20919,7 +21149,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -20940,7 +21170,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20961,7 +21191,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20982,7 +21212,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21003,7 +21233,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21024,7 +21254,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21045,7 +21275,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21066,7 +21296,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21087,7 +21317,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21096,7 +21326,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21105,7 +21335,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21114,7 +21344,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21123,7 +21353,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21132,7 +21362,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21141,7 +21371,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21150,7 +21380,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21159,7 +21389,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21168,7 +21398,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21177,7 +21407,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21186,7 +21416,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21195,7 +21425,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21204,7 +21434,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21213,7 +21443,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21222,7 +21452,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21231,7 +21461,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21240,7 +21470,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21249,7 +21479,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21258,7 +21488,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21267,7 +21497,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21276,7 +21506,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21285,7 +21515,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21294,7 +21524,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21303,7 +21533,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21312,7 +21542,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21321,7 +21551,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21330,7 +21560,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21339,7 +21569,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21348,7 +21578,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
